--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plaur</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H2">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J2">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N2">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P2">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q2">
-        <v>8.925860507793947</v>
+        <v>24.79386997055</v>
       </c>
       <c r="R2">
-        <v>8.925860507793947</v>
+        <v>223.14482973495</v>
       </c>
       <c r="S2">
-        <v>0.001564309297053193</v>
+        <v>0.003578711398877696</v>
       </c>
       <c r="T2">
-        <v>0.001564309297053193</v>
+        <v>0.003578711398877696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H3">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J3">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N3">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O3">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P3">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q3">
-        <v>31.98776581848421</v>
+        <v>35.18246705803</v>
       </c>
       <c r="R3">
-        <v>31.98776581848421</v>
+        <v>316.64220352227</v>
       </c>
       <c r="S3">
-        <v>0.005606043184085387</v>
+        <v>0.005078186505404908</v>
       </c>
       <c r="T3">
-        <v>0.005606043184085387</v>
+        <v>0.005078186505404907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H4">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J4">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N4">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P4">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q4">
-        <v>171.5012528956329</v>
+        <v>253.36431693282</v>
       </c>
       <c r="R4">
-        <v>171.5012528956329</v>
+        <v>2280.27885239538</v>
       </c>
       <c r="S4">
-        <v>0.0300565983668073</v>
+        <v>0.0365702397468946</v>
       </c>
       <c r="T4">
-        <v>0.0300565983668073</v>
+        <v>0.03657023974689459</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H5">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J5">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N5">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P5">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q5">
-        <v>220.4477220860686</v>
+        <v>240.44580255994</v>
       </c>
       <c r="R5">
-        <v>220.4477220860686</v>
+        <v>2164.01222303946</v>
       </c>
       <c r="S5">
-        <v>0.03863475357611947</v>
+        <v>0.03470560003160591</v>
       </c>
       <c r="T5">
-        <v>0.03863475357611947</v>
+        <v>0.03470560003160591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H6">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J6">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N6">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P6">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q6">
-        <v>320.822744430261</v>
+        <v>367.74997636359</v>
       </c>
       <c r="R6">
-        <v>320.822744430261</v>
+        <v>3309.74978727231</v>
       </c>
       <c r="S6">
-        <v>0.05622606373695341</v>
+        <v>0.05308050070088306</v>
       </c>
       <c r="T6">
-        <v>0.05622606373695341</v>
+        <v>0.05308050070088306</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.69605100093472</v>
+        <v>3.94917</v>
       </c>
       <c r="H7">
-        <v>3.69605100093472</v>
+        <v>11.84751</v>
       </c>
       <c r="I7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="J7">
-        <v>0.1365791980434275</v>
+        <v>0.1372790996046713</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N7">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P7">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q7">
-        <v>25.62784526464049</v>
+        <v>29.55455096468</v>
       </c>
       <c r="R7">
-        <v>25.62784526464049</v>
+        <v>265.99095868212</v>
       </c>
       <c r="S7">
-        <v>0.004491429882408738</v>
+        <v>0.0042658612210051</v>
       </c>
       <c r="T7">
-        <v>0.004491429882408738</v>
+        <v>0.0042658612210051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H8">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J8">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N8">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P8">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q8">
-        <v>6.608269785496098</v>
+        <v>18.57439859811333</v>
       </c>
       <c r="R8">
-        <v>6.608269785496098</v>
+        <v>167.16958738302</v>
       </c>
       <c r="S8">
-        <v>0.001158137958111802</v>
+        <v>0.002681001879469465</v>
       </c>
       <c r="T8">
-        <v>0.001158137958111802</v>
+        <v>0.002681001879469465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H9">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J9">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N9">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O9">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P9">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q9">
-        <v>23.68217452863356</v>
+        <v>26.35704581725467</v>
       </c>
       <c r="R9">
-        <v>23.68217452863356</v>
+        <v>237.213412355292</v>
       </c>
       <c r="S9">
-        <v>0.004150439697912543</v>
+        <v>0.003804337943975213</v>
       </c>
       <c r="T9">
-        <v>0.004150439697912543</v>
+        <v>0.003804337943975213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H10">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J10">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N10">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P10">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q10">
-        <v>126.9711247106461</v>
+        <v>189.808602644072</v>
       </c>
       <c r="R10">
-        <v>126.9711247106461</v>
+        <v>1708.277423796648</v>
       </c>
       <c r="S10">
-        <v>0.02225243276754434</v>
+        <v>0.02739669969610312</v>
       </c>
       <c r="T10">
-        <v>0.02225243276754434</v>
+        <v>0.02739669969610312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H11">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J11">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N11">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P11">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q11">
-        <v>163.2086923015174</v>
+        <v>180.1306606550907</v>
       </c>
       <c r="R11">
-        <v>163.2086923015174</v>
+        <v>1621.175945895816</v>
       </c>
       <c r="S11">
-        <v>0.02860327858633071</v>
+        <v>0.0259997995205846</v>
       </c>
       <c r="T11">
-        <v>0.02860327858633071</v>
+        <v>0.0259997995205846</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H12">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J12">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N12">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P12">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q12">
-        <v>237.521440836679</v>
+        <v>275.500946545964</v>
       </c>
       <c r="R12">
-        <v>237.521440836679</v>
+        <v>2479.508518913676</v>
       </c>
       <c r="S12">
-        <v>0.04162702271964121</v>
+        <v>0.0397654089086023</v>
       </c>
       <c r="T12">
-        <v>0.04162702271964121</v>
+        <v>0.0397654089086023</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.73637506812955</v>
+        <v>2.958532</v>
       </c>
       <c r="H13">
-        <v>2.73637506812955</v>
+        <v>8.875596</v>
       </c>
       <c r="I13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="J13">
-        <v>0.1011165463508614</v>
+        <v>0.1028430300826775</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.93384513854362</v>
+        <v>7.483737333333333</v>
       </c>
       <c r="N13">
-        <v>6.93384513854362</v>
+        <v>22.451212</v>
       </c>
       <c r="O13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="P13">
-        <v>0.0328851680691566</v>
+        <v>0.03107436771722491</v>
       </c>
       <c r="Q13">
-        <v>18.97360096338205</v>
+        <v>22.14087638026133</v>
       </c>
       <c r="R13">
-        <v>18.97360096338205</v>
+        <v>199.267887422352</v>
       </c>
       <c r="S13">
-        <v>0.003325234621320739</v>
+        <v>0.003195782133942743</v>
       </c>
       <c r="T13">
-        <v>0.003325234621320739</v>
+        <v>0.003195782133942742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H14">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J14">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.41497222455443</v>
+        <v>6.278248333333334</v>
       </c>
       <c r="N14">
-        <v>2.41497222455443</v>
+        <v>18.834745</v>
       </c>
       <c r="O14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="P14">
-        <v>0.01145349598960009</v>
+        <v>0.02606887289604514</v>
       </c>
       <c r="Q14">
-        <v>49.81887101043581</v>
+        <v>0.3827429458944445</v>
       </c>
       <c r="R14">
-        <v>49.81887101043581</v>
+        <v>3.44468651305</v>
       </c>
       <c r="S14">
-        <v>0.008731048734435094</v>
+        <v>5.524456427897016E-05</v>
       </c>
       <c r="T14">
-        <v>0.008731048734435094</v>
+        <v>5.524456427897016E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H15">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J15">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.654579119821291</v>
+        <v>8.908825666666667</v>
       </c>
       <c r="N15">
-        <v>8.654579119821291</v>
+        <v>26.726477</v>
       </c>
       <c r="O15">
-        <v>0.04104609826675698</v>
+        <v>0.0369916944387659</v>
       </c>
       <c r="P15">
-        <v>0.04104609826675698</v>
+        <v>0.03699169443876589</v>
       </c>
       <c r="Q15">
-        <v>178.5367783679328</v>
+        <v>0.5431117087255556</v>
       </c>
       <c r="R15">
-        <v>178.5367783679328</v>
+        <v>4.88800537853</v>
       </c>
       <c r="S15">
-        <v>0.03128961538475905</v>
+        <v>7.839195999610919E-05</v>
       </c>
       <c r="T15">
-        <v>0.03128961538475905</v>
+        <v>7.839195999610917E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H16">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J16">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.4012138502041</v>
+        <v>64.156346</v>
       </c>
       <c r="N16">
-        <v>46.4012138502041</v>
+        <v>192.469038</v>
       </c>
       <c r="O16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749559</v>
       </c>
       <c r="P16">
-        <v>0.2200671756562104</v>
+        <v>0.2663933537749558</v>
       </c>
       <c r="Q16">
-        <v>957.2184988411093</v>
+        <v>3.911184706646667</v>
       </c>
       <c r="R16">
-        <v>957.2184988411093</v>
+        <v>35.20066235981999</v>
       </c>
       <c r="S16">
-        <v>0.1677581445218587</v>
+        <v>0.0005645347543331513</v>
       </c>
       <c r="T16">
-        <v>0.1677581445218587</v>
+        <v>0.0005645347543331512</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H17">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J17">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>59.644123425331</v>
+        <v>60.88514866666666</v>
       </c>
       <c r="N17">
-        <v>59.644123425331</v>
+        <v>182.655446</v>
       </c>
       <c r="O17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="P17">
-        <v>0.2828743624913871</v>
+        <v>0.2528105161787131</v>
       </c>
       <c r="Q17">
-        <v>1230.40872323296</v>
+        <v>3.711761613215555</v>
       </c>
       <c r="R17">
-        <v>1230.40872323296</v>
+        <v>33.40585451894</v>
       </c>
       <c r="S17">
-        <v>0.215636330328937</v>
+        <v>0.0005357503129164191</v>
       </c>
       <c r="T17">
-        <v>0.215636330328937</v>
+        <v>0.0005357503129164191</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>20.6291693560275</v>
+        <v>0.06096333333333333</v>
       </c>
       <c r="H18">
-        <v>20.6291693560275</v>
+        <v>0.18289</v>
       </c>
       <c r="I18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="J18">
-        <v>0.7623042556057111</v>
+        <v>0.002119177323057615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>86.8014928227792</v>
+        <v>93.12082700000001</v>
       </c>
       <c r="N18">
-        <v>86.8014928227792</v>
+        <v>279.362481</v>
       </c>
       <c r="O18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="P18">
-        <v>0.4116736995268888</v>
+        <v>0.3866611949942951</v>
       </c>
       <c r="Q18">
-        <v>1790.642695797118</v>
+        <v>5.676956016676667</v>
       </c>
       <c r="R18">
-        <v>1790.642695797118</v>
+        <v>51.09260415009</v>
       </c>
       <c r="S18">
-        <v>0.3138206130702941</v>
+        <v>0.0008194036361382688</v>
       </c>
       <c r="T18">
-        <v>0.3138206130702941</v>
+        <v>0.0008194036361382688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06096333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.18289</v>
+      </c>
+      <c r="I19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="J19">
+        <v>0.002119177323057615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.483737333333333</v>
+      </c>
+      <c r="N19">
+        <v>22.451212</v>
+      </c>
+      <c r="O19">
+        <v>0.03107436771722491</v>
+      </c>
+      <c r="P19">
+        <v>0.03107436771722491</v>
+      </c>
+      <c r="Q19">
+        <v>0.4562335736311111</v>
+      </c>
+      <c r="R19">
+        <v>4.106102162679999</v>
+      </c>
+      <c r="S19">
+        <v>6.585209539469666E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.585209539469665E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H20">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J20">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.278248333333334</v>
+      </c>
+      <c r="N20">
+        <v>18.834745</v>
+      </c>
+      <c r="O20">
+        <v>0.02606887289604514</v>
+      </c>
+      <c r="P20">
+        <v>0.02606887289604514</v>
+      </c>
+      <c r="Q20">
+        <v>136.8582002441878</v>
+      </c>
+      <c r="R20">
+        <v>1231.72380219769</v>
+      </c>
+      <c r="S20">
+        <v>0.01975391505341901</v>
+      </c>
+      <c r="T20">
+        <v>0.01975391505341901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H21">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J21">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.908825666666667</v>
+      </c>
+      <c r="N21">
+        <v>26.726477</v>
+      </c>
+      <c r="O21">
+        <v>0.0369916944387659</v>
+      </c>
+      <c r="P21">
+        <v>0.03699169443876589</v>
+      </c>
+      <c r="Q21">
+        <v>194.2015960974083</v>
+      </c>
+      <c r="R21">
+        <v>1747.814364876674</v>
+      </c>
+      <c r="S21">
+        <v>0.02803077802938967</v>
+      </c>
+      <c r="T21">
+        <v>0.02803077802938966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="H19">
-        <v>20.6291693560275</v>
-      </c>
-      <c r="I19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="J19">
-        <v>0.7623042556057111</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.93384513854362</v>
-      </c>
-      <c r="N19">
-        <v>6.93384513854362</v>
-      </c>
-      <c r="O19">
-        <v>0.0328851680691566</v>
-      </c>
-      <c r="P19">
-        <v>0.0328851680691566</v>
-      </c>
-      <c r="Q19">
-        <v>143.0394656514843</v>
-      </c>
-      <c r="R19">
-        <v>143.0394656514843</v>
-      </c>
-      <c r="S19">
-        <v>0.02506850356542712</v>
-      </c>
-      <c r="T19">
-        <v>0.02506850356542712</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H22">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J22">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>64.156346</v>
+      </c>
+      <c r="N22">
+        <v>192.469038</v>
+      </c>
+      <c r="O22">
+        <v>0.2663933537749559</v>
+      </c>
+      <c r="P22">
+        <v>0.2663933537749558</v>
+      </c>
+      <c r="Q22">
+        <v>1398.530542537751</v>
+      </c>
+      <c r="R22">
+        <v>12586.77488283976</v>
+      </c>
+      <c r="S22">
+        <v>0.201861879577625</v>
+      </c>
+      <c r="T22">
+        <v>0.2018618795776249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H23">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J23">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>60.88514866666666</v>
+      </c>
+      <c r="N23">
+        <v>182.655446</v>
+      </c>
+      <c r="O23">
+        <v>0.2528105161787131</v>
+      </c>
+      <c r="P23">
+        <v>0.2528105161787131</v>
+      </c>
+      <c r="Q23">
+        <v>1327.22240754305</v>
+      </c>
+      <c r="R23">
+        <v>11945.00166788745</v>
+      </c>
+      <c r="S23">
+        <v>0.1915693663136061</v>
+      </c>
+      <c r="T23">
+        <v>0.1915693663136061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H24">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J24">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>93.12082700000001</v>
+      </c>
+      <c r="N24">
+        <v>279.362481</v>
+      </c>
+      <c r="O24">
+        <v>0.3866611949942951</v>
+      </c>
+      <c r="P24">
+        <v>0.3866611949942951</v>
+      </c>
+      <c r="Q24">
+        <v>2029.921104077125</v>
+      </c>
+      <c r="R24">
+        <v>18269.28993669412</v>
+      </c>
+      <c r="S24">
+        <v>0.2929958817486715</v>
+      </c>
+      <c r="T24">
+        <v>0.2929958817486715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.79878733333334</v>
+      </c>
+      <c r="H25">
+        <v>65.39636200000001</v>
+      </c>
+      <c r="I25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="J25">
+        <v>0.7577586929895936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.483737333333333</v>
+      </c>
+      <c r="N25">
+        <v>22.451212</v>
+      </c>
+      <c r="O25">
+        <v>0.03107436771722491</v>
+      </c>
+      <c r="P25">
+        <v>0.03107436771722491</v>
+      </c>
+      <c r="Q25">
+        <v>163.1363985878605</v>
+      </c>
+      <c r="R25">
+        <v>1468.227587290744</v>
+      </c>
+      <c r="S25">
+        <v>0.02354687226688237</v>
+      </c>
+      <c r="T25">
+        <v>0.02354687226688237</v>
       </c>
     </row>
   </sheetData>
